--- a/data/xyxb.xlsx
+++ b/data/xyxb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>case_id</t>
   </si>
@@ -42,7 +42,7 @@
     <t>excepted</t>
   </si>
   <si>
-    <t>check_sql</t>
+    <t>head</t>
   </si>
   <si>
     <t>result</t>
@@ -51,61 +51,70 @@
     <t>follow</t>
   </si>
   <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>登陆_正确登陆</t>
-  </si>
-  <si>
-    <t>login</t>
+    <t>用户有无未认证学时</t>
+  </si>
+  <si>
+    <t>getStudyFinish</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{'mobilephone':'#register_phone#','pwd':#pwd#}</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>充值_充值成功</t>
-  </si>
-  <si>
-    <t>recharge</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13059285932','amount':10.03}</t>
-  </si>
-  <si>
-    <t>SELECT LeaveAmount FROM member WHERE MobilePhone = 13059285932</t>
-  </si>
-  <si>
-    <t>充值_充值失败</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13059285932','amount':10.666}</t>
-  </si>
-  <si>
-    <t>提现</t>
-  </si>
-  <si>
-    <t>提现_提现成功</t>
-  </si>
-  <si>
-    <t>withdraw</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13059285932','amount':5.03}</t>
-  </si>
-  <si>
-    <t>提现_提现失败</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13059285932','amount':100.06}</t>
+    <t>specialColumnCenter/getStudyFinish</t>
+  </si>
+  <si>
+    <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+  </si>
+  <si>
+    <t>小组明细信息</t>
+  </si>
+  <si>
+    <t>groupDetail</t>
+  </si>
+  <si>
+    <t>groupCenter/groupDetail</t>
+  </si>
+  <si>
+    <t>设置小组的直播状态</t>
+  </si>
+  <si>
+    <t>setLiveStatus</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/setLiveStatus</t>
+  </si>
+  <si>
+    <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0','liveStatus':1}</t>
+  </si>
+  <si>
+    <t>更新最后发言时间</t>
+  </si>
+  <si>
+    <t>updateLastGroupSpeak</t>
+  </si>
+  <si>
+    <t>groupCenter/updateLastGroupSpeak</t>
+  </si>
+  <si>
+    <t>查询核心小组</t>
+  </si>
+  <si>
+    <t>listGroupKey</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/listGroupKey</t>
+  </si>
+  <si>
+    <t>{'courseCode':#courseCode#}</t>
+  </si>
+  <si>
+    <t>获取直播提问列表</t>
+  </si>
+  <si>
+    <t>listQuestion</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/listQuestion</t>
   </si>
 </sst>
 </file>
@@ -113,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,6 +144,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -150,18 +160,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,37 +186,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,35 +243,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +258,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,31 +289,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,37 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,109 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +480,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,15 +505,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +543,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -545,32 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -591,16 +600,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -609,25 +618,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
@@ -636,88 +645,88 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1094,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1094,7 +1103,7 @@
     <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.025" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.525" style="2" customWidth="1"/>
     <col min="7" max="7" width="52.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="63.525" style="2" customWidth="1"/>
@@ -1146,16 +1155,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -1165,124 +1174,112 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
+      <c r="K2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
+      <c r="K3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="1">
         <v>200</v>
       </c>
       <c r="J4"/>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
+      <c r="K4"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>200</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
@@ -1291,232 +1288,164 @@
         <v>200</v>
       </c>
       <c r="J6"/>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8">
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="8:8">
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="8:8">
-      <c r="H12" s="1">
-        <v>200</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="8:8">
-      <c r="H13" s="1">
-        <v>200</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="8:8">
-      <c r="H14" s="1">
-        <v>200</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="8:8">
-      <c r="H15" s="1">
-        <v>200</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="8:8">
-      <c r="H16" s="1">
-        <v>200</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="8:8">
-      <c r="H17" s="1">
-        <v>200</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="8:8">
-      <c r="H18" s="1">
-        <v>200</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="8:8">
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="8:8">
-      <c r="H20" s="1">
-        <v>200</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="8:8">
-      <c r="H21" s="1">
-        <v>200</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="8:8">
-      <c r="H22" s="1">
-        <v>200</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="8:8">
-      <c r="H23" s="1">
-        <v>200</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="8:8">
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="8:8">
-      <c r="H25" s="1">
-        <v>200</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="8:8">
-      <c r="H26" s="1">
-        <v>200</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="8:8">
-      <c r="H27" s="1">
-        <v>200</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="8:8">
-      <c r="H28" s="1">
-        <v>200</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="8:8">
-      <c r="H29" s="1">
-        <v>200</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30" s="1">
-        <v>200</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="8:8">
-      <c r="H31" s="1">
-        <v>200</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="8:8">
-      <c r="H32" s="1">
-        <v>200</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="8:8">
-      <c r="H33" s="1">
-        <v>200</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="8:8">
-      <c r="H34" s="1">
-        <v>200</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="8:8">
-      <c r="H35" s="1">
-        <v>200</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="1">
-        <v>200</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="1">
-        <v>200</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="1">
-        <v>200</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="1">
-        <v>200</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="1">
-        <v>200</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="1">
-        <v>200</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="1">
-        <v>200</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="1">
-        <v>200</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="1">
-        <v>200</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="1">
-        <v>200</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="1">
-        <v>200</v>
-      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="1">
-        <v>200</v>
-      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="1">
-        <v>200</v>
-      </c>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="1">
-        <v>200</v>
-      </c>
+      <c r="H49" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="login" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F3" r:id="rId2" display="recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="F4" r:id="rId2" display="recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="F5" r:id="rId3" display="withdraw" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
-    <hyperlink ref="F6" r:id="rId3" display="withdraw" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
+    <hyperlink ref="F2" r:id="rId1" display="specialColumnCenter/getStudyFinish" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F3" r:id="rId2" display="groupCenter/groupDetail" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="F4" r:id="rId2" display="specialColumnCenter/setLiveStatus" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="F5" r:id="rId3" display="groupCenter/updateLastGroupSpeak" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
+    <hyperlink ref="F6" r:id="rId3" display="specialColumnCenter/listGroupKey" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/xyxb.xlsx
+++ b/data/xyxb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
   <si>
     <t>case_id</t>
   </si>
@@ -48,12 +48,15 @@
     <t>result</t>
   </si>
   <si>
-    <t>follow</t>
+    <t>res</t>
   </si>
   <si>
     <t>用户有无未认证学时</t>
   </si>
   <si>
+    <t>用户有无未认证学时getStudyFinish</t>
+  </si>
+  <si>
     <t>getStudyFinish</t>
   </si>
   <si>
@@ -66,55 +69,187 @@
     <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
   </si>
   <si>
+    <t>#tea#</t>
+  </si>
+  <si>
     <t>小组明细信息</t>
   </si>
   <si>
+    <t>小组明细信息groupDetail</t>
+  </si>
+  <si>
     <t>groupDetail</t>
   </si>
   <si>
     <t>groupCenter/groupDetail</t>
   </si>
   <si>
+    <t>更新最后发言时间</t>
+  </si>
+  <si>
+    <t>更新最后发言时间updateLastGroupSpeak</t>
+  </si>
+  <si>
+    <t>updateLastGroupSpeak</t>
+  </si>
+  <si>
+    <t>groupCenter/updateLastGroupSpeak</t>
+  </si>
+  <si>
+    <t>查询核心小组</t>
+  </si>
+  <si>
+    <t>查询核心小组listGroupKey</t>
+  </si>
+  <si>
+    <t>listGroupKey</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/listGroupKey</t>
+  </si>
+  <si>
+    <t>{'courseCode':'#course_code#'}</t>
+  </si>
+  <si>
+    <t>获取直播提问列表</t>
+  </si>
+  <si>
+    <t>获取直播提问列表listQuestion</t>
+  </si>
+  <si>
+    <t>listQuestion</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/listQuestion</t>
+  </si>
+  <si>
+    <t>开启督导课程计时</t>
+  </si>
+  <si>
+    <t>开启督导课程计时startSupervisor</t>
+  </si>
+  <si>
+    <t>startSupervisor</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/startSupervisor</t>
+  </si>
+  <si>
+    <t>用户督导计时登记</t>
+  </si>
+  <si>
+    <t>用户督导计时登记userReckon</t>
+  </si>
+  <si>
+    <t>userReckon</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/userReckon</t>
+  </si>
+  <si>
+    <t>{'duration':180,'groupCode':'196F0b9C1b282Da069DA0488b64834C0','courseCode':'#course_code#'}</t>
+  </si>
+  <si>
+    <t>#stu#</t>
+  </si>
+  <si>
+    <t>小组明细信息接口</t>
+  </si>
+  <si>
+    <t>小组明细信息接口groupDetail</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/groupDetail</t>
+  </si>
+  <si>
+    <t>直播卷-查使用状态</t>
+  </si>
+  <si>
+    <t>直播卷-查使用状态isUseTicket</t>
+  </si>
+  <si>
+    <t>isUseTicket</t>
+  </si>
+  <si>
+    <t>groupLiveTicket/isUseTicket</t>
+  </si>
+  <si>
+    <t>{'useType':2,'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+  </si>
+  <si>
+    <t>加入核心小组</t>
+  </si>
+  <si>
+    <t>加入核心小组addGroupKey</t>
+  </si>
+  <si>
+    <t>addGroupKey</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/addGroupKey</t>
+  </si>
+  <si>
+    <t>{'sort':1,'courseCode':'#course_code#'}</t>
+  </si>
+  <si>
+    <t>加入核心小组editGroupKey</t>
+  </si>
+  <si>
+    <t>editGroupKey</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/editGroupKey</t>
+  </si>
+  <si>
+    <t>{'status':1,'courseCode':'#course_code#'}</t>
+  </si>
+  <si>
+    <t>修改核心小组成员状态</t>
+  </si>
+  <si>
+    <t>修改核心小组成员状态editGroupKey</t>
+  </si>
+  <si>
+    <t>{'courseCode':'#course_code#','status':2,'userCode':'48D393a5aBc510B0a9601e3C1A0c9C9A'}</t>
+  </si>
+  <si>
+    <t>{'courseCode':'#course_code#','status':0,'userCode':'48D393a5aBc510B0a9601e3C1A0c9C9A'}</t>
+  </si>
+  <si>
+    <t>退出核心小组</t>
+  </si>
+  <si>
+    <t>退出核心小组quitGroupKey</t>
+  </si>
+  <si>
+    <t>quitGroupKey</t>
+  </si>
+  <si>
+    <t>specialColumnCenter/quitGroupKey</t>
+  </si>
+  <si>
+    <t>{'courseCode':'#course_code#','sort':1}</t>
+  </si>
+  <si>
+    <t>{'courseCode': '#course_code#', 'status': 0}</t>
+  </si>
+  <si>
     <t>设置小组的直播状态</t>
   </si>
   <si>
+    <t>设置小组的直播状态setLiveStatus</t>
+  </si>
+  <si>
     <t>setLiveStatus</t>
   </si>
   <si>
     <t>specialColumnCenter/setLiveStatus</t>
   </si>
   <si>
-    <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0','liveStatus':1}</t>
-  </si>
-  <si>
-    <t>更新最后发言时间</t>
-  </si>
-  <si>
-    <t>updateLastGroupSpeak</t>
-  </si>
-  <si>
-    <t>groupCenter/updateLastGroupSpeak</t>
-  </si>
-  <si>
-    <t>查询核心小组</t>
-  </si>
-  <si>
-    <t>listGroupKey</t>
-  </si>
-  <si>
-    <t>specialColumnCenter/listGroupKey</t>
-  </si>
-  <si>
-    <t>{'courseCode':#courseCode#}</t>
-  </si>
-  <si>
-    <t>获取直播提问列表</t>
-  </si>
-  <si>
-    <t>listQuestion</t>
-  </si>
-  <si>
-    <t>specialColumnCenter/listQuestion</t>
+    <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0','liveStatus':0}</t>
+  </si>
+  <si>
+    <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0','duration':471,'courseCode':'#course_code#'}</t>
   </si>
 </sst>
 </file>
@@ -124,8 +259,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -139,6 +274,96 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,17 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,51 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,45 +414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -289,13 +424,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,79 +574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,85 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +615,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,39 +701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -556,30 +715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -600,16 +735,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -618,115 +753,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,23 +1226,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.525" style="2" customWidth="1"/>
-    <col min="7" max="7" width="52.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="82.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="63.525" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="31.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
@@ -1155,24 +1290,26 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <v>200</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2"/>
     </row>
@@ -1181,271 +1318,782 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>200</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>200</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
         <v>200</v>
       </c>
-      <c r="J6"/>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>200</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1">
+        <v>200</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H9" s="1">
+        <v>200</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>200</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1">
+        <v>200</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H14" s="1">
+        <v>200</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="8:8">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="8:8">
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="8:8">
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="8:8">
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="8:8">
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="8:8">
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="8:8">
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="8:8">
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="8:8">
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="8:8">
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="8:8">
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="8:8">
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="8:8">
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="8:8">
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>200</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>200</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="1">
+        <v>200</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>200</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1">
+        <v>200</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="1">
+        <v>200</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="1">
+        <v>200</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1">
+        <v>200</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="1">
+        <v>200</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="1">
+        <v>200</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>200</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="specialColumnCenter/getStudyFinish" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
     <hyperlink ref="F3" r:id="rId2" display="groupCenter/groupDetail" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="F4" r:id="rId2" display="specialColumnCenter/setLiveStatus" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="F5" r:id="rId3" display="groupCenter/updateLastGroupSpeak" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
-    <hyperlink ref="F6" r:id="rId3" display="specialColumnCenter/listGroupKey" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
+    <hyperlink ref="F4" r:id="rId3" display="groupCenter/updateLastGroupSpeak" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
+    <hyperlink ref="F5" r:id="rId3" display="specialColumnCenter/listGroupKey" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/xyxb.xlsx
+++ b/data/xyxb.xlsx
@@ -1271,7 +1271,7 @@
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":12587,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":4,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A"},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":4,"sort":0,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1372,12 +1372,12 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"courseCode":"B8C462DE67cbED9A1472ed6d409131B8"},"message":"SUCCESS"}</t>
+          <t>{"code":400,"data":null,"message":"该专栏未在直播！"}</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":12587,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":4,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A"},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":4,"sort":0,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"columnPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/3338Fb83579d8f97055E3ab4D83D4F79/1551838191479.jpg","groupType":4,"fee":1,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","channel":{"channelAction":"订阅","channelName":"专栏","channelCode":"1","channelTitle":"专家督导"},"isSysAnalysis":null,"memberList":[{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","imUserId":"A7C6174C8b2795a70317B0B24fAD7c89","memberType":2,"userName":"清风","userId":12583,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366","relTime":1562667452056},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","imUserId":"e679fE70D158D28EC78e37c1136Da125","memberType":1,"userName":"学个案运营","userId":12585,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79","relTime":1553766103554},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3e7676330d6bE7aCdAe33887413512bF/1552379731443.jpg","imUserId":"8A57A03dB8ad49B0567E1BBcbbD02cec","memberType":3,"userName":"vson","userId":12584,"userCode":"3e7676330d6bE7aCdAe33887413512bF","relTime":1562581949886},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"95C3F03B0BF0c29399cdDaacE3aF5006","memberType":1,"userName":"鱼","userId":12586,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da","relTime":1562323899228},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"C38EFC023451cea22fE9A2622255b4b6","memberType":3,"userName":"学个案运营","userId":12587,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A","relTime":1562667250295}],"isOwner":3,"certList":"1,2,9,6","coverPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","liveStatus":1,"groupCode":"196F0b9C1b282Da069DA0488b64834C0","isClose":0,"isGetMsg":1,"groupPeople":7,"isOpenAudio":1,"groupReportCode":"24229BbF0bB226BA46d667a760d86A25","groupDesc":"-介绍","coverTime":1556462769000,"groupImg":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","target":"看看","userInfoJson":{"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","userName":"学个案运营","title":null,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},"groupName":"专栏测试","isRealNameint":0,"isAnonymous":0,"entryCriteriaJson":{"admissionConvDura":0,"admissionFee":1,"certList":"1,2,9,6","crTime":1551838192609,"crUser":"3338Fb83579d8f97055E3ab4D83D4F79","feeUnit":"年","groupCode":"196F0b9C1b282Da069DA0488b64834C0","id":593,"isRealCounselor":0,"isRealNameint":0,"relTime":1562378845939,"relUser":"840Bd2E41A4ef29E28e1b4ff46573366","status":2},"reportDesc":"看看","isTop":0,"courseStatus":1,"shareDesc":"一句话介绍","masterName":"清风"},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"columnPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/3338Fb83579d8f97055E3ab4D83D4F79/1551838191479.jpg","groupType":4,"fee":1,"courseCode":"","channel":{"channelAction":"订阅","channelName":"专栏","channelCode":"1","channelTitle":"专家督导"},"isSysAnalysis":null,"memberList":[{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","imUserId":"A7C6174C8b2795a70317B0B24fAD7c89","memberType":2,"userName":"清风","userId":12583,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366","relTime":1562668436844},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","imUserId":"e679fE70D158D28EC78e37c1136Da125","memberType":1,"userName":"学个案运营","userId":12585,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79","relTime":1553766103554},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3e7676330d6bE7aCdAe33887413512bF/1552379731443.jpg","imUserId":"8A57A03dB8ad49B0567E1BBcbbD02cec","memberType":3,"userName":"vson","userId":12584,"userCode":"3e7676330d6bE7aCdAe33887413512bF","relTime":1562581949886},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"95C3F03B0BF0c29399cdDaacE3aF5006","memberType":1,"userName":"鱼","userId":12586,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da","relTime":1562323899228},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"C38EFC023451cea22fE9A2622255b4b6","memberType":3,"userName":"学个案运营","userId":12587,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A","relTime":1562668434790}],"isOwner":3,"certList":"1,2,9,6","coverPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","liveStatus":0,"groupCode":"196F0b9C1b282Da069DA0488b64834C0","isClose":0,"isGetMsg":1,"groupPeople":7,"isOpenAudio":1,"groupReportCode":"24229BbF0bB226BA46d667a760d86A25","groupDesc":"-介绍","coverTime":1556462769000,"groupImg":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","target":"看看","userInfoJson":{"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","userName":"学个案运营","title":null,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},"groupName":"专栏测试","isRealNameint":0,"isAnonymous":0,"entryCriteriaJson":{"admissionConvDura":0,"admissionFee":1,"certList":"1,2,9,6","crTime":1551838192609,"crUser":"3338Fb83579d8f97055E3ab4D83D4F79","feeUnit":"年","groupCode":"196F0b9C1b282Da069DA0488b64834C0","id":593,"isRealCounselor":0,"isRealNameint":0,"relTime":1562667659272,"relUser":"840Bd2E41A4ef29E28e1b4ff46573366","status":2},"reportDesc":"看看","isTop":0,"courseStatus":0,"shareDesc":"一句话介绍","masterName":"清风"},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":12587,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":4,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A"},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B8C462DE67cbED9A1472ed6d409131B8","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":4,"sort":0,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>{"code":400,"data":null,"message":"您已在核心小组上了"}</t>
+          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>

--- a/data/xyxb.xlsx
+++ b/data/xyxb.xlsx
@@ -41,6 +41,60 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
@@ -56,22 +110,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -85,47 +124,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -148,23 +149,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -175,6 +168,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,55 +185,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,127 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -394,6 +403,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -405,24 +423,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -496,16 +496,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -514,115 +514,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="23" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="8" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="22" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="13" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,16 +985,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K27"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="9"/>
-    <col customWidth="1" max="3" min="3" style="1" width="30.25"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9"/>
+    <col customWidth="1" max="2" min="2" style="1" width="20"/>
+    <col customWidth="1" max="3" min="3" style="1" width="33.375"/>
     <col customWidth="1" max="4" min="4" style="2" width="22.75"/>
     <col customWidth="1" max="5" min="5" style="1" width="6.5"/>
     <col customWidth="1" max="6" min="6" style="2" width="45.875"/>
@@ -1003,7 +1004,8 @@
     <col customWidth="1" max="9" min="9" style="2" width="63.525"/>
     <col customWidth="1" max="10" min="10" style="1" width="29.25"/>
     <col customWidth="1" max="11" min="11" style="1" width="31.375"/>
-    <col customWidth="1" max="16384" min="12" style="1" width="9"/>
+    <col customWidth="1" max="16382" min="12" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="16383" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1142,7 +1144,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>groupCenter/groupDetail</t>
+          <t>specialColumnCenter/groupDetail</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -1160,12 +1162,12 @@
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>{"code":400,"data":null,"message":"org.mybatis.spring.MyBatisSystemException: nested exception is org.apache.ibatis.exceptions.TooManyResultsException: Expected one result (or null) to be returned by selectOne(), but found: 31\norg.mybatis.spring.MyBatisSystemException: nested exception is org.apache.ibatis.exceptions.TooManyResultsException: Expected one result (or null) to be returned by selectOne(), but found: 31\n\tat org.mybatis.spring.MyBatisExceptionTranslator.translateExceptionIfPossible(MyBatisExceptionTranslator.java:77)\n\tat org.mybatis.spring.SqlSessionTemplate$SqlSessionInterceptor.invoke(SqlSessionTemplate.java:446)\n\tat com.sun.proxy.$Proxy74.selectOne(Unknown Source)\n\tat org.mybatis.spring.SqlSessionTemplate.selectOne(SqlSessionTemplate.java:166)\n\tat org.apache.ibatis.binding.MapperMethod.execute(MapperMethod.java:82)\n\tat org.apache.ibatis.binding.MapperProxy.invoke(MapperProxy.java:59)\n\tat com.sun.proxy.$Proxy99.selectOne(Unknown Source)\n\tat com.xyxb.backend.common.core.AbstractService.findBy(AbstractService.java:62)\n\tat com.xyxb.backend.service.group.service.impl.DiscussionGroupServiceImpl.groupDetail(DiscussionGroupServiceImpl.java:483)\n\tat com.xyxb.backend.service.group.service.impl.DiscussionGroupServiceImpl$$FastClassBySpringCGLIB$$b28aefb.invoke(&lt;generated&gt;)\n\tat org.springframework.cglib.proxy.MethodProxy.invoke(MethodProxy.java:204)\n\tat org.springframework.aop.framework.CglibAopProxy$DynamicAdvisedInterceptor.intercept(CglibAopProxy.java:651)\n\tat com.xyxb.backend.service.group.service.impl.DiscussionGroupServiceImpl$$EnhancerBySpringCGLIB$$bd8f3491.groupDetail(&lt;generated&gt;)\n\tat com.xyxb.backend.service.group.GroupService.groupDetail(GroupService.java:563)\n\tat com.alibaba.dubbo.common.bytecode.Wrapper5.invokeMethod(Wrapper5.java)\n\tat com.alibaba.dubbo.rpc.proxy.javassist.JavassistProxyFactory$1.doInvoke(JavassistProxyFactory.java:46)\n\tat com.alibaba.dubbo.rpc.proxy.AbstractProxyInvoker.invoke(AbstractProxyInvoker.java:72)\n\tat com.alibaba.dubbo.rpc.protocol.InvokerWrapper.invoke(InvokerWrapper.java:53)\n\tat com.alibaba.dubbo.rpc.filter.ExceptionFilter.invoke(ExceptionFilter.java:64)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.dubbo.monitor.support.MonitorFilter.invoke(MonitorFilter.java:75)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.dubbo.rpc.filter.TimeoutFilter.invoke(TimeoutFilter.java:42)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.boot.dubbo.listener.ProviderInvokeStaticsFilter.invoke(ProviderInvokeStaticsFilter.java:31)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.dubbo.rpc.protocol.dubbo.filter.TraceFilter.invoke(TraceFilter.java:78)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.dubbo.rpc.filter.ContextFilter.invoke(ContextFilter.java:60)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.dubbo.rpc.filter.GenericFilter.invoke(GenericFilter.java:112)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.dubbo.rpc.filter.ClassLoaderFilter.invoke(ClassLoaderFilter.java:38)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.dubbo.rpc.filter.EchoFilter.invoke(EchoFilter.java:38)\n\tat com.alibaba.dubbo.rpc.protocol.ProtocolFilterWrapper$1.invoke(ProtocolFilterWrapper.java:91)\n\tat com.alibaba.dubbo.rpc.protocol.dubbo.DubboProtocol$1.reply(DubboProtocol.java:108)\n\tat com.alibaba.dubbo.remoting.exchange.support.header.HeaderExchangeHandler.handleRequest(HeaderExchangeHandler.java:84)\n\tat com.alibaba.dubbo.remoting.exchange.support.header.HeaderExchangeHandler.received(HeaderExchangeHandler.java:170)\n\tat com.alibaba.dubbo.remoting.transport.DecodeHandler.received(DecodeHandler.java:52)\n\tat com.alibaba.dubbo.remoting.transport.dispatcher.ChannelEventRunnable.run(ChannelEventRunnable.java:82)\n\tat java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1142)\n\tat java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:617)\n\tat java.lang.Thread.run(Thread.java:748)\nCaused by: org.apache.ibatis.exceptions.TooManyResultsException: Expected one result (or null) to be returned by selectOne(), but found: 31\n\tat org.apache.ibatis.session.defaults.DefaultSqlSession.selectOne(DefaultSqlSession.java:81)\n\tat sun.reflect.GeneratedMethodAccessor140.invoke(Unknown Source)\n\tat sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)\n\tat java.lang.reflect.Method.invoke(Method.java:498)\n\tat org.mybatis.spring.SqlSessionTemplate$SqlSessionInterceptor.invoke(SqlSessionTemplate.java:433)\n\t... 42 more\n"}</t>
+          <t>{"code":200,"data":{"columnPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/3338Fb83579d8f97055E3ab4D83D4F79/1551838191479.jpg","groupType":4,"fee":1,"courseCode":"","channel":{"channelAction":"订阅","channelName":"专栏","channelCode":"1","channelTitle":"专家督导"},"isSysAnalysis":null,"memberList":[{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","imUserId":"A7C6174C8b2795a70317B0B24fAD7c89","memberType":2,"userName":"清风","userId":12583,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366","relTime":1562835459115},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","imUserId":"e679fE70D158D28EC78e37c1136Da125","memberType":1,"userName":"学个案运营","userId":12585,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79","relTime":1553766103554},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3e7676330d6bE7aCdAe33887413512bF/1552379731443.jpg","imUserId":"8A57A03dB8ad49B0567E1BBcbbD02cec","memberType":3,"userName":"vson","userId":12584,"userCode":"3e7676330d6bE7aCdAe33887413512bF","relTime":1562581949886},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"95C3F03B0BF0c29399cdDaacE3aF5006","memberType":1,"userName":"鱼","userId":12586,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da","relTime":1562323899228},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"C38EFC023451cea22fE9A2622255b4b6","memberType":3,"userName":"学个案运营","userId":12587,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A","relTime":1562835458004}],"isOwner":2,"certList":"1,2,9,6","coverPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","liveStatus":0,"groupCode":"196F0b9C1b282Da069DA0488b64834C0","isClose":0,"isGetMsg":1,"groupPeople":7,"isOpenAudio":1,"groupReportCode":"24229BbF0bB226BA46d667a760d86A25","groupDesc":"-介绍","coverTime":1556462769000,"groupImg":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","target":"看看","userInfoJson":{"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","userName":"学个案运营","title":null,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},"groupName":"专栏测试","isRealNameint":0,"isAnonymous":0,"entryCriteriaJson":{"admissionConvDura":0,"admissionFee":1,"certList":"1,2,9,6","crTime":1551838192609,"crUser":"3338Fb83579d8f97055E3ab4D83D4F79","feeUnit":"年","groupCode":"196F0b9C1b282Da069DA0488b64834C0","id":593,"isRealCounselor":0,"isRealNameint":0,"relTime":1562667659272,"relUser":"840Bd2E41A4ef29E28e1b4ff46573366","status":2},"reportDesc":"看看","isTop":0,"courseStatus":0,"shareDesc":"一句话介绍","masterName":"清风"},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1222,23 +1224,23 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1">
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>查询核心小组</t>
+          <t>开启直播</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>查询核心小组listGroupKey</t>
+          <t>开启直播setLiveStatus</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>listGroupKey</t>
+          <t>setLiveStatus</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -1246,14 +1248,14 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>specialColumnCenter/listGroupKey</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>specialColumnCenter/setLiveStatus</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>{'courseCode':'#course_code#'}</t>
+          <t>{'groupCode': '196F0b9C1b282Da069DA0488b64834C0', 'liveStatus': 1}</t>
         </is>
       </c>
       <c r="H5" s="1" t="n">
@@ -1264,34 +1266,34 @@
           <t>#tea#</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" s="0" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":4,"sort":0,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+          <t>{"code":200,"data":{"courseCode":"B24A772f109C5d87809217807CBC9Cb4","isOk":1},"message":"SUCCESS"}</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="6" s="1">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>获取直播提问列表</t>
+          <t>查询核心小组</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>获取直播提问列表listQuestion</t>
+          <t>查询核心小组listGroupKey</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>listQuestion</t>
+          <t>listGroupKey</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -1299,14 +1301,14 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>specialColumnCenter/listQuestion</t>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>specialColumnCenter/listGroupKey</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+          <t>{'courseCode':'#course_code#'}</t>
         </is>
       </c>
       <c r="H6" s="1" t="n">
@@ -1317,14 +1319,14 @@
           <t>#tea#</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" s="0" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":[],"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":12587,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":4,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A"},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1334,17 +1336,17 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>开启督导课程计时</t>
+          <t>获取直播提问列表</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>开启督导课程计时startSupervisor</t>
+          <t>获取直播提问列表listQuestion</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>startSupervisor</t>
+          <t>listQuestion</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -1354,7 +1356,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/startSupervisor</t>
+          <t>specialColumnCenter/listQuestion</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -1372,12 +1374,12 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>{"code":400,"data":null,"message":"该专栏未在直播！"}</t>
+          <t>{"code":200,"data":[],"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1389,17 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>用户督导计时登记</t>
+          <t>开启督导课程计时</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>用户督导计时登记userReckon</t>
+          <t>开启督导课程计时startSupervisor</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>userReckon</t>
+          <t>startSupervisor</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -1407,12 +1409,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/userReckon</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>{'duration':180,'groupCode':'196F0b9C1b282Da069DA0488b64834C0','courseCode':'#course_code#'}</t>
+          <t>specialColumnCenter/startSupervisor</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
       <c r="H8" s="1" t="n">
@@ -1430,7 +1432,7 @@
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"duration":180,"isOk":1},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"courseCode":"B24A772f109C5d87809217807CBC9Cb4"},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1440,17 +1442,17 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>查询核心小组</t>
+          <t>用户督导计时登记</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>查询核心小组listGroupKey</t>
+          <t>用户督导计时登记userReckon</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>listGroupKey</t>
+          <t>userReckon</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -1460,12 +1462,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/listGroupKey</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>{'courseCode':'#course_code#'}</t>
+          <t>specialColumnCenter/userReckon</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>{'duration':180,'groupCode':'196F0b9C1b282Da069DA0488b64834C0','courseCode':'#course_code#'}</t>
         </is>
       </c>
       <c r="H9" s="1" t="n">
@@ -1483,7 +1485,7 @@
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":4,"sort":0,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"duration":180,"isOk":1},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1493,17 +1495,17 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>用户有无未认证学时</t>
+          <t>查询核心小组</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>用户有无未认证学时getStudyFinish</t>
+          <t>查询核心小组listGroupKey</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>getStudyFinish</t>
+          <t>listGroupKey</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -1513,20 +1515,20 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/getStudyFinish</t>
+          <t>specialColumnCenter/listGroupKey</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+          <t>{'courseCode':'#course_code#'}</t>
         </is>
       </c>
       <c r="H10" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>#stu#</t>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>#tea#</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1536,7 +1538,7 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"count":0,"status":0},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":12587,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":4,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A"},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1548,17 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>小组明细信息接口</t>
+          <t>用户有无未认证学时</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>小组明细信息接口groupDetail</t>
+          <t>用户有无未认证学时getStudyFinish</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>groupDetail</t>
+          <t>getStudyFinish</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -1566,7 +1568,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/groupDetail</t>
+          <t>specialColumnCenter/getStudyFinish</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1589,7 +1591,7 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"columnPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/3338Fb83579d8f97055E3ab4D83D4F79/1551838191479.jpg","groupType":4,"fee":1,"courseCode":"","channel":{"channelAction":"订阅","channelName":"专栏","channelCode":"1","channelTitle":"专家督导"},"isSysAnalysis":null,"memberList":[{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","imUserId":"A7C6174C8b2795a70317B0B24fAD7c89","memberType":2,"userName":"清风","userId":12583,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366","relTime":1562668436844},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","imUserId":"e679fE70D158D28EC78e37c1136Da125","memberType":1,"userName":"学个案运营","userId":12585,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79","relTime":1553766103554},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3e7676330d6bE7aCdAe33887413512bF/1552379731443.jpg","imUserId":"8A57A03dB8ad49B0567E1BBcbbD02cec","memberType":3,"userName":"vson","userId":12584,"userCode":"3e7676330d6bE7aCdAe33887413512bF","relTime":1562581949886},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"95C3F03B0BF0c29399cdDaacE3aF5006","memberType":1,"userName":"鱼","userId":12586,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da","relTime":1562323899228},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"C38EFC023451cea22fE9A2622255b4b6","memberType":3,"userName":"学个案运营","userId":12587,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A","relTime":1562668434790}],"isOwner":3,"certList":"1,2,9,6","coverPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","liveStatus":0,"groupCode":"196F0b9C1b282Da069DA0488b64834C0","isClose":0,"isGetMsg":1,"groupPeople":7,"isOpenAudio":1,"groupReportCode":"24229BbF0bB226BA46d667a760d86A25","groupDesc":"-介绍","coverTime":1556462769000,"groupImg":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","target":"看看","userInfoJson":{"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","userName":"学个案运营","title":null,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},"groupName":"专栏测试","isRealNameint":0,"isAnonymous":0,"entryCriteriaJson":{"admissionConvDura":0,"admissionFee":1,"certList":"1,2,9,6","crTime":1551838192609,"crUser":"3338Fb83579d8f97055E3ab4D83D4F79","feeUnit":"年","groupCode":"196F0b9C1b282Da069DA0488b64834C0","id":593,"isRealCounselor":0,"isRealNameint":0,"relTime":1562667659272,"relUser":"840Bd2E41A4ef29E28e1b4ff46573366","status":2},"reportDesc":"看看","isTop":0,"courseStatus":0,"shareDesc":"一句话介绍","masterName":"清风"},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"count":0,"status":0},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1599,17 +1601,17 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>直播卷-查使用状态</t>
+          <t>小组明细信息接口</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>直播卷-查使用状态isUseTicket</t>
+          <t>小组明细信息接口groupDetail</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>isUseTicket</t>
+          <t>groupDetail</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -1619,12 +1621,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>groupLiveTicket/isUseTicket</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>{'useType':2,'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+          <t>specialColumnCenter/groupDetail</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
       <c r="H12" s="1" t="n">
@@ -1642,7 +1644,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"isUse":0,"msg":"未消耗直播卷！","isOk":1},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"columnPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/3338Fb83579d8f97055E3ab4D83D4F79/1551838191479.jpg","groupType":4,"fee":1,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","channel":{"channelAction":"订阅","channelName":"专栏","channelCode":"1","channelTitle":"专家督导"},"isSysAnalysis":null,"memberList":[{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","imUserId":"A7C6174C8b2795a70317B0B24fAD7c89","memberType":2,"userName":"清风","userId":12583,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366","relTime":1562837228261},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","imUserId":"e679fE70D158D28EC78e37c1136Da125","memberType":1,"userName":"学个案运营","userId":12585,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79","relTime":1553766103554},{"acUserId":null,"permissionJson":"{}","userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3e7676330d6bE7aCdAe33887413512bF/1552379731443.jpg","imUserId":"8A57A03dB8ad49B0567E1BBcbbD02cec","memberType":3,"userName":"vson","userId":12584,"userCode":"3e7676330d6bE7aCdAe33887413512bF","relTime":1562581949886},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"95C3F03B0BF0c29399cdDaacE3aF5006","memberType":1,"userName":"鱼","userId":12586,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da","relTime":1562323899228},{"acUserId":null,"permissionJson":"{}","userPic":"http://www.xuegean.com/images/head.png","imUserId":"C38EFC023451cea22fE9A2622255b4b6","memberType":3,"userName":"学个案运营","userId":12587,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A","relTime":1562835458004}],"isOwner":3,"certList":"1,2,9,6","coverPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","liveStatus":1,"groupCode":"196F0b9C1b282Da069DA0488b64834C0","isClose":0,"isGetMsg":1,"groupPeople":7,"isOpenAudio":1,"groupReportCode":"24229BbF0bB226BA46d667a760d86A25","groupDesc":"-介绍","coverTime":1556462769000,"groupImg":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/role/840Bd2E41A4ef29E28e1b4ff46573366/1551857541631.jpg","target":"看看","userInfoJson":{"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","userName":"学个案运营","title":null,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},"groupName":"专栏测试","isRealNameint":0,"isAnonymous":0,"entryCriteriaJson":{"admissionConvDura":0,"admissionFee":1,"certList":"1,2,9,6","crTime":1551838192609,"crUser":"3338Fb83579d8f97055E3ab4D83D4F79","feeUnit":"年","groupCode":"196F0b9C1b282Da069DA0488b64834C0","id":593,"isRealCounselor":0,"isRealNameint":0,"relTime":1562667659272,"relUser":"840Bd2E41A4ef29E28e1b4ff46573366","status":2},"reportDesc":"看看","isTop":0,"courseStatus":1,"shareDesc":"一句话介绍","masterName":"清风"},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1652,17 +1654,17 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>获取直播提问列表</t>
+          <t>直播卷-查使用状态</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>获取直播提问列表listQuestion</t>
+          <t>直播卷-查使用状态isUseTicket</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>listQuestion</t>
+          <t>isUseTicket</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
@@ -1672,12 +1674,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/listQuestion</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+          <t>groupLiveTicket/isUseTicket</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>{'useType':2,'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
       <c r="H13" s="1" t="n">
@@ -1695,7 +1697,7 @@
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":[],"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"isUse":0,"msg":"未消耗直播卷！","isOk":1},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1707,17 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>查询核心小组</t>
+          <t>获取直播提问列表</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>查询核心小组listGroupKey</t>
+          <t>获取直播提问列表listQuestion</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>listGroupKey</t>
+          <t>listQuestion</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -1725,12 +1727,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/listGroupKey</t>
+          <t>specialColumnCenter/listQuestion</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>{'courseCode':'#course_code#'}</t>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
       <c r="H14" s="1" t="n">
@@ -1748,7 +1750,7 @@
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":4,"sort":0,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"4fF03889eBd206b46D3000C00Ef010fa","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":[],"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1758,17 +1760,17 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>加入核心小组</t>
+          <t>查询核心小组</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>加入核心小组addGroupKey</t>
+          <t>查询核心小组listGroupKey</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>addGroupKey</t>
+          <t>listGroupKey</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -1778,12 +1780,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/addGroupKey</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>{'sort':1,'courseCode':'#course_code#'}</t>
+          <t>specialColumnCenter/listGroupKey</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>{'courseCode':'#course_code#'}</t>
         </is>
       </c>
       <c r="H15" s="1" t="n">
@@ -1794,14 +1796,14 @@
           <t>#stu#</t>
         </is>
       </c>
-      <c r="J15" s="0" t="inlineStr">
+      <c r="J15" s="1" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":[{"uid":12585,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/3338Fb83579d8f97055E3ab4D83D4F79/1551838633590.jpg","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":1,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"3338Fb83579d8f97055E3ab4D83D4F79"},{"uid":12586,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":1,"sort":0,"userName":"鱼","applyStatus":0,"userCode":"7364f85Cb73D7C9C3F1159ddde5998Da"},{"uid":12583,"userPic":"https://xyxbtest.oss-cn-shenzhen.aliyuncs.com/public/userHeader/840Bd2E41A4ef29E28e1b4ff46573366/1555922168445.jpg","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":2,"sort":0,"userName":"清风","applyStatus":0,"userCode":"840Bd2E41A4ef29E28e1b4ff46573366"},{"uid":12587,"userPic":"http://www.xuegean.com/images/head.png","courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":4,"sort":0,"userName":"学个案运营","applyStatus":0,"userCode":"48D393a5aBc510B0a9601e3C1A0c9C9A"},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":1,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":2,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":3,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":4,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":5,"userName":null,"applyStatus":0,"userCode":null},{"uid":null,"userPic":null,"courseCode":"B24A772f109C5d87809217807CBC9Cb4","memberType":3,"sort":6,"userName":null,"applyStatus":0,"userCode":null}],"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1811,17 +1813,17 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>更新最后发言时间</t>
+          <t>加入核心小组</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>更新最后发言时间updateLastGroupSpeak</t>
+          <t>加入核心小组addGroupKey</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>updateLastGroupSpeak</t>
+          <t>addGroupKey</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -1831,12 +1833,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>groupCenter/updateLastGroupSpeak</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+          <t>specialColumnCenter/addGroupKey</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>{'sort':1,'courseCode':'#course_code#'}</t>
         </is>
       </c>
       <c r="H16" s="1" t="n">
@@ -1847,14 +1849,14 @@
           <t>#stu#</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
+          <t>{"code":400,"data":null,"message":"您已在核心小组上了"}</t>
         </is>
       </c>
     </row>
@@ -1864,17 +1866,17 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>加入核心小组</t>
+          <t>更新最后发言时间</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>加入核心小组editGroupKey</t>
+          <t>更新最后发言时间updateLastGroupSpeak</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>editGroupKey</t>
+          <t>updateLastGroupSpeak</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1884,12 +1886,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/editGroupKey</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>{'status':1,'courseCode':'#course_code#'}</t>
+          <t>groupCenter/updateLastGroupSpeak</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
       <c r="H17" s="1" t="n">
@@ -1907,7 +1909,7 @@
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1917,17 +1919,17 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>更新最后发言时间</t>
+          <t>加入核心小组</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>更新最后发言时间updateLastGroupSpeak</t>
+          <t>加入核心小组editGroupKey</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>updateLastGroupSpeak</t>
+          <t>editGroupKey</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -1937,12 +1939,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>groupCenter/updateLastGroupSpeak</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+          <t>specialColumnCenter/editGroupKey</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>{'status':1,'courseCode':'#course_code#'}</t>
         </is>
       </c>
       <c r="H18" s="1" t="n">
@@ -1960,7 +1962,7 @@
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -1970,17 +1972,17 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>修改核心小组成员状态</t>
+          <t>更新最后发言时间</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>修改核心小组成员状态editGroupKey</t>
+          <t>更新最后发言时间updateLastGroupSpeak</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>editGroupKey</t>
+          <t>updateLastGroupSpeak</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -1990,20 +1992,20 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/editGroupKey</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>{'courseCode':'#course_code#','status':2,'userCode':'48D393a5aBc510B0a9601e3C1A0c9C9A'}</t>
+          <t>groupCenter/updateLastGroupSpeak</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
       <c r="H19" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="I19" s="1" t="inlineStr">
-        <is>
-          <t>#tea#</t>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>#stu#</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
@@ -2013,7 +2015,7 @@
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -2023,17 +2025,17 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>更新最后发言时间</t>
+          <t>修改核心小组成员状态</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>更新最后发言时间updateLastGroupSpeak</t>
+          <t>修改核心小组成员状态editGroupKey</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>updateLastGroupSpeak</t>
+          <t>editGroupKey</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
@@ -2043,12 +2045,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>groupCenter/updateLastGroupSpeak</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+          <t>specialColumnCenter/editGroupKey</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>{'courseCode':'#course_code#','status':2,'userCode':'48D393a5aBc510B0a9601e3C1A0c9C9A'}</t>
         </is>
       </c>
       <c r="H20" s="1" t="n">
@@ -2066,7 +2068,7 @@
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -2076,17 +2078,17 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>修改核心小组成员状态</t>
+          <t>更新最后发言时间</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>修改核心小组成员状态editGroupKey</t>
+          <t>更新最后发言时间updateLastGroupSpeak</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>editGroupKey</t>
+          <t>updateLastGroupSpeak</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -2096,12 +2098,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/editGroupKey</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>{'courseCode':'#course_code#','status':0,'userCode':'48D393a5aBc510B0a9601e3C1A0c9C9A'}</t>
+          <t>groupCenter/updateLastGroupSpeak</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
       <c r="H21" s="1" t="n">
@@ -2119,7 +2121,7 @@
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -2129,17 +2131,17 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>退出核心小组</t>
+          <t>修改核心小组成员状态</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>退出核心小组quitGroupKey</t>
+          <t>修改核心小组成员状态editGroupKey</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>quitGroupKey</t>
+          <t>editGroupKey</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
@@ -2149,20 +2151,20 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/quitGroupKey</t>
+          <t>specialColumnCenter/editGroupKey</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>{'courseCode':'#course_code#','sort':1}</t>
+          <t>{'courseCode':'#course_code#','status':0,'userCode':'48D393a5aBc510B0a9601e3C1A0c9C9A'}</t>
         </is>
       </c>
       <c r="H22" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>#stu#</t>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>#tea#</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
@@ -2182,17 +2184,17 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>修改核心小组成员状态</t>
+          <t>退出核心小组</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>修改核心小组成员状态editGroupKey</t>
+          <t>退出核心小组quitGroupKey</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>editGroupKey</t>
+          <t>quitGroupKey</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -2202,12 +2204,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/editGroupKey</t>
+          <t>specialColumnCenter/quitGroupKey</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>{'courseCode': '#course_code#', 'status': 0}</t>
+          <t>{'courseCode':'#course_code#','sort':1}</t>
         </is>
       </c>
       <c r="H23" s="1" t="n">
@@ -2218,14 +2220,14 @@
           <t>#stu#</t>
         </is>
       </c>
-      <c r="J23" s="0" t="inlineStr">
-        <is>
-          <t>error</t>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>{"code":400,"data":null,"message":"该用户不在此核心小组内哦"}</t>
+          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -2235,17 +2237,17 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>更新最后发言时间</t>
+          <t>修改核心小组成员状态</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>更新最后发言时间updateLastGroupSpeak</t>
+          <t>修改核心小组成员状态editGroupKey</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>updateLastGroupSpeak</t>
+          <t>editGroupKey</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -2255,12 +2257,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>groupCenter/updateLastGroupSpeak</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
+          <t>specialColumnCenter/editGroupKey</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>{'courseCode': '#course_code#', 'status': 0}</t>
         </is>
       </c>
       <c r="H24" s="1" t="n">
@@ -2271,14 +2273,14 @@
           <t>#stu#</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
+          <t>{"code":400,"data":null,"message":"该用户不在此核心小组内哦"}</t>
         </is>
       </c>
     </row>
@@ -2288,17 +2290,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>设置小组的直播状态</t>
+          <t>更新最后发言时间</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>设置小组的直播状态setLiveStatus</t>
+          <t>更新最后发言时间updateLastGroupSpeak</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>setLiveStatus</t>
+          <t>updateLastGroupSpeak</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
@@ -2308,20 +2310,20 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/setLiveStatus</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0','liveStatus':0}</t>
+          <t>groupCenter/updateLastGroupSpeak</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
       <c r="H25" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="I25" s="1" t="inlineStr">
-        <is>
-          <t>#tea#</t>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>#stu#</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
@@ -2331,7 +2333,7 @@
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -2341,17 +2343,17 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>用户督导计时登记</t>
+          <t>设置小组的直播状态</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>用户督导计时登记userReckon</t>
+          <t>设置小组的直播状态setLiveStatus</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>userReckon</t>
+          <t>setLiveStatus</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -2361,12 +2363,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>specialColumnCenter/userReckon</t>
+          <t>specialColumnCenter/setLiveStatus</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0','duration':471,'courseCode':'#course_code#'}</t>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0','liveStatus':0}</t>
         </is>
       </c>
       <c r="H26" s="1" t="n">
@@ -2384,7 +2386,7 @@
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>{"code":200,"data":{"duration":471,"isOk":1},"message":"SUCCESS"}</t>
+          <t>{"code":200,"data":{"isOk":1},"message":"SUCCESS"}</t>
         </is>
       </c>
     </row>
@@ -2394,48 +2396,101 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
+          <t>用户督导计时登记</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>用户督导计时登记userReckon</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>userReckon</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>specialColumnCenter/userReckon</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0','duration':471,'courseCode':'#course_code#'}</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>#tea#</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>{"code":200,"data":{"duration":471,"isOk":1},"message":"SUCCESS"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
           <t>更新最后发言时间</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>更新最后发言时间updateLastGroupSpeak</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>updateLastGroupSpeak</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>groupCenter/updateLastGroupSpeak</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
         </is>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H28" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
         <is>
           <t>#tea#</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J28" s="1" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="K27" s="0" t="inlineStr">
+      <c r="K28" s="0" t="inlineStr">
         <is>
           <t>{"code":200,"data":null,"message":"SUCCESS"}</t>
         </is>
@@ -2444,9 +2499,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="specialColumnCenter/getStudyFinish" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="groupCenter/groupDetail" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="specialColumnCenter/groupDetail" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="groupCenter/updateLastGroupSpeak" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="specialColumnCenter/listGroupKey" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="specialColumnCenter/listGroupKey" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
